--- a/medicine/Enfance/Poulbot/Poulbot.xlsx
+++ b/medicine/Enfance/Poulbot/Poulbot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de « poulbot » désigne par antonomase les gamins pauvres de Montmartre (et plus généralement de Paris) dont le peintre Francisque Poulbot avait fait un de ses sujets de prédilection[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de « poulbot » désigne par antonomase les gamins pauvres de Montmartre (et plus généralement de Paris) dont le peintre Francisque Poulbot avait fait un de ses sujets de prédilection.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francisque Poulbot (1879-1946), illustrateur et habitant de Montmartre, est connu pour les nombreuses illustrations représentant des titis parisiens de son quartier, publiées dans la presse à partir de 1900. Ses illustrations eurent un grand succès et Poulbot continuera sur ce sujet sa vie durant[2].
-Poulbot était également philanthrope et s'investissait beaucoup dans la vie de son quartier, il est ainsi un des cofondateurs de la  « République de Montmartre » en 1920. À travers elle, il consacre beaucoup de temps aux enfants nécessiteux et, en 1923, pour venir en aide aux jeunes déshérités de Montmartre, il ouvre Les P'tits Poulbots, un dispensaire rue Lepic (transformé en association loi de 1901 en 1939 et qui existe toujours)[3],[2]. Poulbot est ainsi entériné pour décrire ces gamins de Montmartre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francisque Poulbot (1879-1946), illustrateur et habitant de Montmartre, est connu pour les nombreuses illustrations représentant des titis parisiens de son quartier, publiées dans la presse à partir de 1900. Ses illustrations eurent un grand succès et Poulbot continuera sur ce sujet sa vie durant.
+Poulbot était également philanthrope et s'investissait beaucoup dans la vie de son quartier, il est ainsi un des cofondateurs de la  « République de Montmartre » en 1920. À travers elle, il consacre beaucoup de temps aux enfants nécessiteux et, en 1923, pour venir en aide aux jeunes déshérités de Montmartre, il ouvre Les P'tits Poulbots, un dispensaire rue Lepic (transformé en association loi de 1901 en 1939 et qui existe toujours),. Poulbot est ainsi entériné pour décrire ces gamins de Montmartre.
 Dans les années 1960 à 1980, le terme « poulbots » désigna les illustrations d'enfants parisiens aux grands yeux (dans la veine de Margaret Keane) peintes par Stanislas Pozar, artiste connu sous le pseudonyme de Michel Thomas (1937-2014) et est depuis occasionnellement utilisé dans la littérature.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Quelques exemples dans la littérature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Oh! mon Dieu! je trouvais tout laid / Quand mon enfant s'étiolait / Maintenant je trouve tout beau / Parce qu'on soigne mon Poulbot!!! — Rostand, Vol Marseill., 1918, p.258
 Il est entré dans ce nouveau monde, craintif, intimidé, mais avec sa gaieté, son frais sourire, sa gouaille de Poulbot pour le protéger — Robert Sabatier, Trois sucettes à la menthe, 1972, p.7)
